--- a/templates/oefen/oefen_geologie_template.xlsx
+++ b/templates/oefen/oefen_geologie_template.xlsx
@@ -7532,7 +7532,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-04 08:56:20.110614</t>
+    <t>2025-03-05 16:14:55.733147</t>
   </si>
   <si>
     <t>version</t>

--- a/templates/oefen/oefen_geologie_template.xlsx
+++ b/templates/oefen/oefen_geologie_template.xlsx
@@ -7532,13 +7532,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-05 16:14:55.733147</t>
+    <t>2025-03-19 12:18:14.335403</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.2</t>
+    <t>2.1.3</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/oefen/oefen_geologie_template.xlsx
+++ b/templates/oefen/oefen_geologie_template.xlsx
@@ -7532,25 +7532,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-19 12:18:14.335403</t>
+    <t>2025-04-17 10:01:25.953857</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.3</t>
+    <t>2.1.4</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.1.0</t>
+    <t>9.1.2</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.4.0</t>
+    <t>5.4.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/oefen/oefen_geologie_template.xlsx
+++ b/templates/oefen/oefen_geologie_template.xlsx
@@ -7532,13 +7532,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-06-27 02:17:34.379395</t>
+    <t>2025-08-06 15:10:54.914308</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.5</t>
+    <t>2.1.6</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/oefen/oefen_geologie_template.xlsx
+++ b/templates/oefen/oefen_geologie_template.xlsx
@@ -7616,19 +7616,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-18 15:21:11.409269</t>
+    <t>2025-09-22 09:28:02.559029</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.7</t>
+    <t>2.1.8</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.2.0</t>
+    <t>9.2.2</t>
   </si>
   <si>
     <t>schema-version</t>
@@ -54399,25 +54399,25 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1000001">
-      <formula1>'Codelijsten'!$A$4:$A$30</formula1>
+      <formula1>'Codelijsten'!$A$4:''$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1000001">
-      <formula1>'Codelijsten'!$C$4:$C$63</formula1>
+      <formula1>'Codelijsten'!$C$4:''$C$63</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J1000001">
-      <formula1>'Codelijsten'!$E$4:$E$30</formula1>
+      <formula1>'Codelijsten'!$E$4:''$E$30</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8:Q1000001">
-      <formula1>'Codelijsten'!$G$4:$G$9</formula1>
+      <formula1>'Codelijsten'!$G$4:''$G$9</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U1000001">
-      <formula1>'Codelijsten'!$I$4:$I$6</formula1>
+      <formula1>'Codelijsten'!$I$4:''$I$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8:V1000001">
-      <formula1>'Codelijsten'!$K$4:$K$17</formula1>
+      <formula1>'Codelijsten'!$K$4:''$K$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA8:AA1000001">
-      <formula1>'Codelijsten'!$M$4:$M$8</formula1>
+      <formula1>'Codelijsten'!$M$4:''$M$8</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -54666,28 +54666,28 @@
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1000001">
-      <formula1>'Codelijsten'!$O$4:$O$6</formula1>
+      <formula1>'Codelijsten'!$O$4:''$O$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H1000001">
-      <formula1>'Codelijsten'!$Q$4:$Q$8</formula1>
+      <formula1>'Codelijsten'!$Q$4:''$Q$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K1000001">
-      <formula1>'Codelijsten'!$S$4:$S$131</formula1>
+      <formula1>'Codelijsten'!$S$4:''$S$131</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L1000001">
-      <formula1>'Codelijsten'!$U$4:$U$297</formula1>
+      <formula1>'Codelijsten'!$U$4:''$U$297</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M1000001">
-      <formula1>'Codelijsten'!$W$4:$W$9</formula1>
+      <formula1>'Codelijsten'!$W$4:''$W$9</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
-      <formula1>'Codelijsten'!$Y$4:$Y$131</formula1>
+      <formula1>'Codelijsten'!$Y$4:''$Y$131</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
-      <formula1>'Codelijsten'!$AA$4:$AA$85</formula1>
+      <formula1>'Codelijsten'!$AA$4:''$AA$85</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -55167,40 +55167,40 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D1000001">
-      <formula1>'Codelijsten'!$AC$4:$AC$11</formula1>
+      <formula1>'Codelijsten'!$AC$4:''$AC$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G1000001">
-      <formula1>'Codelijsten'!$AE$4:$AE$1054</formula1>
+      <formula1>'Codelijsten'!$AE$4:''$AE$1054</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J1000001">
-      <formula1>'Codelijsten'!$AG$4:$AG$5</formula1>
+      <formula1>'Codelijsten'!$AG$4:''$AG$5</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L1000001">
-      <formula1>'Codelijsten'!$AI$4:$AI$68</formula1>
+      <formula1>'Codelijsten'!$AI$4:''$AI$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10:M1000001">
-      <formula1>'Codelijsten'!$AK$4:$AK$6</formula1>
+      <formula1>'Codelijsten'!$AK$4:''$AK$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:P1000001">
-      <formula1>'Codelijsten'!$AM$4:$AM$181</formula1>
+      <formula1>'Codelijsten'!$AM$4:''$AM$181</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:R1000001">
-      <formula1>'Codelijsten'!$AO$4:$AO$6</formula1>
+      <formula1>'Codelijsten'!$AO$4:''$AO$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W10:W1000001">
-      <formula1>'Codelijsten'!$AQ$4:$AQ$1003</formula1>
+      <formula1>'Codelijsten'!$AQ$4:''$AQ$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z10:Z1000001">
-      <formula1>'Codelijsten'!$AS$4:$AS$68</formula1>
+      <formula1>'Codelijsten'!$AS$4:''$AS$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD10:AD1000001">
-      <formula1>'Codelijsten'!$AU$4:$AU$6</formula1>
+      <formula1>'Codelijsten'!$AU$4:''$AU$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG10:AG1000001">
-      <formula1>'Codelijsten'!$AW$4:$AW$1054</formula1>
+      <formula1>'Codelijsten'!$AW$4:''$AW$1054</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -55487,10 +55487,10 @@
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
-      <formula1>'Codelijsten'!$AY$4:$AY$29</formula1>
+      <formula1>'Codelijsten'!$AY$4:''$AY$29</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
-      <formula1>'Codelijsten'!$BA$4:$BA$18</formula1>
+      <formula1>'Codelijsten'!$BA$4:''$BA$18</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1000001">
       <formula1>-146096</formula1>
@@ -55499,13 +55499,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
-      <formula1>'Codelijsten'!$BC$4:$BC$8</formula1>
+      <formula1>'Codelijsten'!$BC$4:''$BC$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P1000001">
-      <formula1>'Codelijsten'!$BE$4:$BE$86</formula1>
+      <formula1>'Codelijsten'!$BE$4:''$BE$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -56322,25 +56322,25 @@
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1000001">
-      <formula1>'Codelijsten'!$BG$4:$BG$14</formula1>
+      <formula1>'Codelijsten'!$BG$4:''$BG$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1000001">
-      <formula1>'Codelijsten'!$BI$4:$BI$5</formula1>
+      <formula1>'Codelijsten'!$BI$4:''$BI$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1000001">
-      <formula1>'Codelijsten'!$BK$4:$BK$86</formula1>
+      <formula1>'Codelijsten'!$BK$4:''$BK$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1000001">
-      <formula1>'Codelijsten'!$BM$4:$BM$12</formula1>
+      <formula1>'Codelijsten'!$BM$4:''$BM$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1000001">
-      <formula1>'Codelijsten'!$BO$4:$BO$40</formula1>
+      <formula1>'Codelijsten'!$BO$4:''$BO$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1000001">
-      <formula1>'Codelijsten'!$BQ$4:$BQ$6</formula1>
+      <formula1>'Codelijsten'!$BQ$4:''$BQ$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
       <formula1>-146096</formula1>
@@ -56358,7 +56358,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD7:BD1000001">
-      <formula1>'Codelijsten'!$BS$4:$BS$86</formula1>
+      <formula1>'Codelijsten'!$BS$4:''$BS$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -57344,22 +57344,22 @@
   </mergeCells>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$BU$4:$BU$1003</formula1>
+      <formula1>'Codelijsten'!$BU$4:''$BU$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
-      <formula1>'Codelijsten'!$BW$4:$BW$68</formula1>
+      <formula1>'Codelijsten'!$BW$4:''$BW$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
-      <formula1>'Codelijsten'!$BY$4:$BY$68</formula1>
+      <formula1>'Codelijsten'!$BY$4:''$BY$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB8:AB1000001">
-      <formula1>'Codelijsten'!$CA$4:$CA$68</formula1>
+      <formula1>'Codelijsten'!$CA$4:''$CA$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC8:AC1000001">
-      <formula1>'Codelijsten'!$CC$4:$CC$6</formula1>
+      <formula1>'Codelijsten'!$CC$4:''$CC$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AD1000001">
-      <formula1>'Codelijsten'!$CE$4:$CE$181</formula1>
+      <formula1>'Codelijsten'!$CE$4:''$CE$181</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE8:AE1000001">
       <formula1>-146096</formula1>
@@ -57368,13 +57368,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
-      <formula1>'Codelijsten'!$CG$4:$CG$6</formula1>
+      <formula1>'Codelijsten'!$CG$4:''$CG$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY8:AY1000001">
-      <formula1>'Codelijsten'!$CI$4:$CI$1003</formula1>
+      <formula1>'Codelijsten'!$CI$4:''$CI$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
-      <formula1>'Codelijsten'!$CK$4:$CK$68</formula1>
+      <formula1>'Codelijsten'!$CK$4:''$CK$68</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE8:BE1000001">
       <formula1>-146096</formula1>
@@ -57386,7 +57386,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR8:BR1000001">
-      <formula1>'Codelijsten'!$CM$4:$CM$86</formula1>
+      <formula1>'Codelijsten'!$CM$4:''$CM$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/templates/oefen/oefen_geologie_template.xlsx
+++ b/templates/oefen/oefen_geologie_template.xlsx
@@ -7616,7 +7616,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:28:02.559029</t>
+    <t>2025-09-22 09:59:16.963577</t>
   </si>
   <si>
     <t>version</t>
@@ -54399,25 +54399,25 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1000001">
-      <formula1>'Codelijsten'!$A$4:''$A$30</formula1>
+      <formula1>'Codelijsten'!$A$4:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1000001">
-      <formula1>'Codelijsten'!$C$4:''$C$63</formula1>
+      <formula1>'Codelijsten'!$C$4:$C$63</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J1000001">
-      <formula1>'Codelijsten'!$E$4:''$E$30</formula1>
+      <formula1>'Codelijsten'!$E$4:$E$30</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8:Q1000001">
-      <formula1>'Codelijsten'!$G$4:''$G$9</formula1>
+      <formula1>'Codelijsten'!$G$4:$G$9</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U1000001">
-      <formula1>'Codelijsten'!$I$4:''$I$6</formula1>
+      <formula1>'Codelijsten'!$I$4:$I$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8:V1000001">
-      <formula1>'Codelijsten'!$K$4:''$K$17</formula1>
+      <formula1>'Codelijsten'!$K$4:$K$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA8:AA1000001">
-      <formula1>'Codelijsten'!$M$4:''$M$8</formula1>
+      <formula1>'Codelijsten'!$M$4:$M$8</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -54666,28 +54666,28 @@
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1000001">
-      <formula1>'Codelijsten'!$O$4:''$O$6</formula1>
+      <formula1>'Codelijsten'!$O$4:$O$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H1000001">
-      <formula1>'Codelijsten'!$Q$4:''$Q$8</formula1>
+      <formula1>'Codelijsten'!$Q$4:$Q$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K1000001">
-      <formula1>'Codelijsten'!$S$4:''$S$131</formula1>
+      <formula1>'Codelijsten'!$S$4:$S$131</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L1000001">
-      <formula1>'Codelijsten'!$U$4:''$U$297</formula1>
+      <formula1>'Codelijsten'!$U$4:$U$297</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M1000001">
-      <formula1>'Codelijsten'!$W$4:''$W$9</formula1>
+      <formula1>'Codelijsten'!$W$4:$W$9</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
-      <formula1>'Codelijsten'!$Y$4:''$Y$131</formula1>
+      <formula1>'Codelijsten'!$Y$4:$Y$131</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
-      <formula1>'Codelijsten'!$AA$4:''$AA$85</formula1>
+      <formula1>'Codelijsten'!$AA$4:$AA$85</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -55167,40 +55167,40 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D1000001">
-      <formula1>'Codelijsten'!$AC$4:''$AC$11</formula1>
+      <formula1>'Codelijsten'!$AC$4:$AC$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G1000001">
-      <formula1>'Codelijsten'!$AE$4:''$AE$1054</formula1>
+      <formula1>'Codelijsten'!$AE$4:$AE$1054</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J1000001">
-      <formula1>'Codelijsten'!$AG$4:''$AG$5</formula1>
+      <formula1>'Codelijsten'!$AG$4:$AG$5</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L1000001">
-      <formula1>'Codelijsten'!$AI$4:''$AI$68</formula1>
+      <formula1>'Codelijsten'!$AI$4:$AI$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10:M1000001">
-      <formula1>'Codelijsten'!$AK$4:''$AK$6</formula1>
+      <formula1>'Codelijsten'!$AK$4:$AK$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:P1000001">
-      <formula1>'Codelijsten'!$AM$4:''$AM$181</formula1>
+      <formula1>'Codelijsten'!$AM$4:$AM$181</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:R1000001">
-      <formula1>'Codelijsten'!$AO$4:''$AO$6</formula1>
+      <formula1>'Codelijsten'!$AO$4:$AO$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W10:W1000001">
-      <formula1>'Codelijsten'!$AQ$4:''$AQ$1003</formula1>
+      <formula1>'Codelijsten'!$AQ$4:$AQ$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z10:Z1000001">
-      <formula1>'Codelijsten'!$AS$4:''$AS$68</formula1>
+      <formula1>'Codelijsten'!$AS$4:$AS$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD10:AD1000001">
-      <formula1>'Codelijsten'!$AU$4:''$AU$6</formula1>
+      <formula1>'Codelijsten'!$AU$4:$AU$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG10:AG1000001">
-      <formula1>'Codelijsten'!$AW$4:''$AW$1054</formula1>
+      <formula1>'Codelijsten'!$AW$4:$AW$1054</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -55487,10 +55487,10 @@
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
-      <formula1>'Codelijsten'!$AY$4:''$AY$29</formula1>
+      <formula1>'Codelijsten'!$AY$4:$AY$29</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
-      <formula1>'Codelijsten'!$BA$4:''$BA$18</formula1>
+      <formula1>'Codelijsten'!$BA$4:$BA$18</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1000001">
       <formula1>-146096</formula1>
@@ -55499,13 +55499,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
-      <formula1>'Codelijsten'!$BC$4:''$BC$8</formula1>
+      <formula1>'Codelijsten'!$BC$4:$BC$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P1000001">
-      <formula1>'Codelijsten'!$BE$4:''$BE$86</formula1>
+      <formula1>'Codelijsten'!$BE$4:$BE$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -56322,25 +56322,25 @@
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1000001">
-      <formula1>'Codelijsten'!$BG$4:''$BG$14</formula1>
+      <formula1>'Codelijsten'!$BG$4:$BG$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1000001">
-      <formula1>'Codelijsten'!$BI$4:''$BI$5</formula1>
+      <formula1>'Codelijsten'!$BI$4:$BI$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1000001">
-      <formula1>'Codelijsten'!$BK$4:''$BK$86</formula1>
+      <formula1>'Codelijsten'!$BK$4:$BK$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1000001">
-      <formula1>'Codelijsten'!$BM$4:''$BM$12</formula1>
+      <formula1>'Codelijsten'!$BM$4:$BM$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1000001">
-      <formula1>'Codelijsten'!$BO$4:''$BO$40</formula1>
+      <formula1>'Codelijsten'!$BO$4:$BO$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1000001">
-      <formula1>'Codelijsten'!$BQ$4:''$BQ$6</formula1>
+      <formula1>'Codelijsten'!$BQ$4:$BQ$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
       <formula1>-146096</formula1>
@@ -56358,7 +56358,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD7:BD1000001">
-      <formula1>'Codelijsten'!$BS$4:''$BS$86</formula1>
+      <formula1>'Codelijsten'!$BS$4:$BS$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -57344,22 +57344,22 @@
   </mergeCells>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$BU$4:''$BU$1003</formula1>
+      <formula1>'Codelijsten'!$BU$4:$BU$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
-      <formula1>'Codelijsten'!$BW$4:''$BW$68</formula1>
+      <formula1>'Codelijsten'!$BW$4:$BW$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
-      <formula1>'Codelijsten'!$BY$4:''$BY$68</formula1>
+      <formula1>'Codelijsten'!$BY$4:$BY$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB8:AB1000001">
-      <formula1>'Codelijsten'!$CA$4:''$CA$68</formula1>
+      <formula1>'Codelijsten'!$CA$4:$CA$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC8:AC1000001">
-      <formula1>'Codelijsten'!$CC$4:''$CC$6</formula1>
+      <formula1>'Codelijsten'!$CC$4:$CC$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AD1000001">
-      <formula1>'Codelijsten'!$CE$4:''$CE$181</formula1>
+      <formula1>'Codelijsten'!$CE$4:$CE$181</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE8:AE1000001">
       <formula1>-146096</formula1>
@@ -57368,13 +57368,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
-      <formula1>'Codelijsten'!$CG$4:''$CG$6</formula1>
+      <formula1>'Codelijsten'!$CG$4:$CG$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY8:AY1000001">
-      <formula1>'Codelijsten'!$CI$4:''$CI$1003</formula1>
+      <formula1>'Codelijsten'!$CI$4:$CI$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
-      <formula1>'Codelijsten'!$CK$4:''$CK$68</formula1>
+      <formula1>'Codelijsten'!$CK$4:$CK$68</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE8:BE1000001">
       <formula1>-146096</formula1>
@@ -57386,7 +57386,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR8:BR1000001">
-      <formula1>'Codelijsten'!$CM$4:''$CM$86</formula1>
+      <formula1>'Codelijsten'!$CM$4:$CM$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/templates/oefen/oefen_geologie_template.xlsx
+++ b/templates/oefen/oefen_geologie_template.xlsx
@@ -7616,7 +7616,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:59:16.963577</t>
+    <t>2025-09-22 11:00:05.357765</t>
   </si>
   <si>
     <t>version</t>
@@ -7634,7 +7634,7 @@
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.5.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/oefen/oefen_geologie_template.xlsx
+++ b/templates/oefen/oefen_geologie_template.xlsx
@@ -7616,13 +7616,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 11:00:05.357765</t>
+    <t>2025-09-24 17:44:35.574891</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.8</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/oefen/oefen_geologie_template.xlsx
+++ b/templates/oefen/oefen_geologie_template.xlsx
@@ -7616,13 +7616,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-24 17:44:35.574891</t>
+    <t>2025-09-24 22:46:50.242917</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/oefen/oefen_geologie_template.xlsx
+++ b/templates/oefen/oefen_geologie_template.xlsx
@@ -7628,7 +7628,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-12-18 01:28:46.320836</t>
+    <t>2026-01-01 02:16:44.509726</t>
   </si>
   <si>
     <t>version</t>
@@ -55290,7 +55290,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -55474,60 +55474,59 @@
     <row r="12" spans="1:18" hidden="1"/>
     <row r="13" spans="1:18" hidden="1"/>
     <row r="14" spans="1:18" hidden="1"/>
-    <row r="15" spans="1:18" hidden="1"/>
-    <row r="16" spans="1:18">
-      <c r="A16" s="6" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>2100</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>2102</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>2104</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>2106</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>2107</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>2108</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>2146</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>2147</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>2148</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>2149</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>2230</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>2121</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>2123</v>
       </c>
     </row>
@@ -55540,33 +55539,33 @@
     <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E1000001">
       <formula1>'Codelijsten'!$AY$4:$AY$29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F1000001">
       <formula1>'Codelijsten'!$BA$4:$BA$18</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:J1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J1000001">
       <formula1>'Codelijsten'!$BC$4:$BC$8</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17:L1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L16:L1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N17:N1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N16:N1000001">
       <formula1>'Codelijsten'!$BE$4:$BE$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E16" location="'Codelijsten'!$AY$2" display="aard"/>
-    <hyperlink ref="F16" location="'Codelijsten'!$BA$2" display="origine"/>
-    <hyperlink ref="J16" location="'Codelijsten'!$BC$2" display="status"/>
-    <hyperlink ref="N16" location="'Codelijsten'!$BE$2" display="type bijlage"/>
+    <hyperlink ref="E15" location="'Codelijsten'!$AY$2" display="aard"/>
+    <hyperlink ref="F15" location="'Codelijsten'!$BA$2" display="origine"/>
+    <hyperlink ref="J15" location="'Codelijsten'!$BC$2" display="status"/>
+    <hyperlink ref="N15" location="'Codelijsten'!$BE$2" display="type bijlage"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/oefen/oefen_geologie_template.xlsx
+++ b/templates/oefen/oefen_geologie_template.xlsx
@@ -7628,25 +7628,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2026-01-01 02:16:44.509726</t>
+    <t>2026-02-10 16:32:23.896997</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.2.2</t>
+    <t>2.2.3</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.4.0</t>
+    <t>9.4.3</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.7.0</t>
+    <t>5.9.0</t>
   </si>
   <si>
     <t>mode</t>
